--- a/Öğrenci_Soru_Sayısı_TYT_AYT_Net_V21.xlsx
+++ b/Öğrenci_Soru_Sayısı_TYT_AYT_Net_V21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bulen\Desktop\GITHUB ANA KLASOR\Student_Work_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5FFBFF-208E-4F3A-958F-C40D094EB806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB860AC2-61EC-4221-8396-576208466F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{188079E3-1FB8-4C3A-A4C1-FF4FF04EE122}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{188079E3-1FB8-4C3A-A4C1-FF4FF04EE122}"/>
   </bookViews>
   <sheets>
     <sheet name="HAFTALIK SORU  " sheetId="25" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Sayfa2" sheetId="30" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'AYT DENEME NET'!$A$1:$W$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'AYT DENEME NET'!$A$1:$W$188</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'HAFTALIK SORU  '!$A$1:$P$359</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TYT DENEME NET '!$A$1:$R$331</definedName>
   </definedNames>
@@ -19018,13 +19018,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B61E17-3974-4A13-9E63-E3E361189E57}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:R331"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R299" sqref="R299:R309"/>
     </sheetView>
   </sheetViews>
@@ -19103,7 +19103,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="98" t="s">
         <v>15</v>
       </c>
@@ -19159,7 +19159,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="98" t="s">
         <v>15</v>
       </c>
@@ -19215,7 +19215,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="98" t="s">
         <v>15</v>
       </c>
@@ -19271,7 +19271,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="98" t="s">
         <v>15</v>
       </c>
@@ -19327,7 +19327,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="98" t="s">
         <v>15</v>
       </c>
@@ -19383,7 +19383,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="98" t="s">
         <v>15</v>
       </c>
@@ -19439,7 +19439,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="98" t="s">
         <v>15</v>
       </c>
@@ -19495,7 +19495,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="98" t="s">
         <v>15</v>
       </c>
@@ -19551,7 +19551,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="98" t="s">
         <v>15</v>
       </c>
@@ -19663,7 +19663,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="102" t="s">
         <v>15</v>
       </c>
@@ -19719,7 +19719,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="102" t="s">
         <v>15</v>
       </c>
@@ -19831,7 +19831,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="102" t="s">
         <v>15</v>
       </c>
@@ -19887,7 +19887,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="102" t="s">
         <v>15</v>
       </c>
@@ -19943,7 +19943,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="102" t="s">
         <v>15</v>
       </c>
@@ -19999,7 +19999,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="102" t="s">
         <v>15</v>
       </c>
@@ -20055,7 +20055,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="102" t="s">
         <v>15</v>
       </c>
@@ -20111,7 +20111,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="102" t="s">
         <v>15</v>
       </c>
@@ -20167,7 +20167,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="102" t="s">
         <v>15</v>
       </c>
@@ -20279,7 +20279,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="103" t="s">
         <v>15</v>
       </c>
@@ -20335,7 +20335,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="103" t="s">
         <v>15</v>
       </c>
@@ -20391,7 +20391,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="103" t="s">
         <v>15</v>
       </c>
@@ -20503,7 +20503,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="103" t="s">
         <v>15</v>
       </c>
@@ -20559,7 +20559,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="103" t="s">
         <v>15</v>
       </c>
@@ -20615,7 +20615,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="103" t="s">
         <v>15</v>
       </c>
@@ -20671,7 +20671,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="103" t="s">
         <v>15</v>
       </c>
@@ -20727,7 +20727,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="103" t="s">
         <v>15</v>
       </c>
@@ -20783,7 +20783,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="103" t="s">
         <v>15</v>
       </c>
@@ -20839,7 +20839,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="101" t="s">
         <v>15</v>
       </c>
@@ -20895,7 +20895,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="101" t="s">
         <v>15</v>
       </c>
@@ -20951,7 +20951,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="101" t="s">
         <v>15</v>
       </c>
@@ -21063,7 +21063,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="101" t="s">
         <v>15</v>
       </c>
@@ -21119,7 +21119,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="101" t="s">
         <v>15</v>
       </c>
@@ -21175,7 +21175,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="101" t="s">
         <v>15</v>
       </c>
@@ -21231,7 +21231,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="101" t="s">
         <v>15</v>
       </c>
@@ -21287,7 +21287,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="101" t="s">
         <v>15</v>
       </c>
@@ -21343,7 +21343,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="101" t="s">
         <v>15</v>
       </c>
@@ -21399,7 +21399,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="104" t="s">
         <v>15</v>
       </c>
@@ -21455,7 +21455,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="104" t="s">
         <v>15</v>
       </c>
@@ -21567,7 +21567,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="104" t="s">
         <v>15</v>
       </c>
@@ -21623,7 +21623,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="104" t="s">
         <v>15</v>
       </c>
@@ -21679,7 +21679,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="104" t="s">
         <v>15</v>
       </c>
@@ -21735,7 +21735,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="104" t="s">
         <v>15</v>
       </c>
@@ -21791,7 +21791,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="104" t="s">
         <v>15</v>
       </c>
@@ -21847,7 +21847,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="104" t="s">
         <v>15</v>
       </c>
@@ -21903,7 +21903,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="104" t="s">
         <v>15</v>
       </c>
@@ -21959,7 +21959,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="20" t="s">
         <v>15</v>
       </c>
@@ -22015,7 +22015,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
         <v>15</v>
       </c>
@@ -22071,7 +22071,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="20" t="s">
         <v>15</v>
       </c>
@@ -22183,7 +22183,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="20" t="s">
         <v>15</v>
       </c>
@@ -22239,7 +22239,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="20" t="s">
         <v>15</v>
       </c>
@@ -22295,7 +22295,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="20" t="s">
         <v>15</v>
       </c>
@@ -22351,7 +22351,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="20" t="s">
         <v>15</v>
       </c>
@@ -22407,7 +22407,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="20" t="s">
         <v>15</v>
       </c>
@@ -22463,7 +22463,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="20" t="s">
         <v>15</v>
       </c>
@@ -22519,7 +22519,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="106" t="s">
         <v>15</v>
       </c>
@@ -22575,7 +22575,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="106" t="s">
         <v>15</v>
       </c>
@@ -22631,7 +22631,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="106" t="s">
         <v>15</v>
       </c>
@@ -22743,7 +22743,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="106" t="s">
         <v>15</v>
       </c>
@@ -22799,7 +22799,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="106" t="s">
         <v>15</v>
       </c>
@@ -22855,7 +22855,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="106" t="s">
         <v>15</v>
       </c>
@@ -22911,7 +22911,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="106" t="s">
         <v>15</v>
       </c>
@@ -22967,7 +22967,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="106" t="s">
         <v>15</v>
       </c>
@@ -23023,7 +23023,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="106" t="s">
         <v>15</v>
       </c>
@@ -23079,7 +23079,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="107" t="s">
         <v>15</v>
       </c>
@@ -23191,7 +23191,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="107" t="s">
         <v>15</v>
       </c>
@@ -23247,7 +23247,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="107" t="s">
         <v>15</v>
       </c>
@@ -23303,7 +23303,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="107" t="s">
         <v>15</v>
       </c>
@@ -23359,7 +23359,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="107" t="s">
         <v>15</v>
       </c>
@@ -23415,7 +23415,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="107" t="s">
         <v>15</v>
       </c>
@@ -23471,7 +23471,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="107" t="s">
         <v>15</v>
       </c>
@@ -23527,7 +23527,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="107" t="s">
         <v>15</v>
       </c>
@@ -23583,7 +23583,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="107" t="s">
         <v>15</v>
       </c>
@@ -23639,7 +23639,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="94" t="s">
         <v>15</v>
       </c>
@@ -23695,7 +23695,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="94" t="s">
         <v>15</v>
       </c>
@@ -23751,7 +23751,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="94" t="s">
         <v>15</v>
       </c>
@@ -23863,7 +23863,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="94" t="s">
         <v>15</v>
       </c>
@@ -23919,7 +23919,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="94" t="s">
         <v>15</v>
       </c>
@@ -23975,7 +23975,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="94" t="s">
         <v>15</v>
       </c>
@@ -24031,7 +24031,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="94" t="s">
         <v>15</v>
       </c>
@@ -24087,7 +24087,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="94" t="s">
         <v>15</v>
       </c>
@@ -24143,7 +24143,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="94" t="s">
         <v>15</v>
       </c>
@@ -24199,7 +24199,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="106" t="s">
         <v>15</v>
       </c>
@@ -24255,7 +24255,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="106" t="s">
         <v>15</v>
       </c>
@@ -24367,7 +24367,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="106" t="s">
         <v>15</v>
       </c>
@@ -24423,7 +24423,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="106" t="s">
         <v>15</v>
       </c>
@@ -24479,7 +24479,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="106" t="s">
         <v>15</v>
       </c>
@@ -24535,7 +24535,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="106" t="s">
         <v>15</v>
       </c>
@@ -24591,7 +24591,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="106" t="s">
         <v>15</v>
       </c>
@@ -24647,7 +24647,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="106" t="s">
         <v>15</v>
       </c>
@@ -24703,7 +24703,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="106" t="s">
         <v>15</v>
       </c>
@@ -24759,7 +24759,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="102" t="s">
         <v>15</v>
       </c>
@@ -24815,7 +24815,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="102" t="s">
         <v>15</v>
       </c>
@@ -24871,7 +24871,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="102" t="s">
         <v>15</v>
       </c>
@@ -24983,7 +24983,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="102" t="s">
         <v>15</v>
       </c>
@@ -25039,7 +25039,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="102" t="s">
         <v>15</v>
       </c>
@@ -25095,7 +25095,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="102" t="s">
         <v>15</v>
       </c>
@@ -25151,7 +25151,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="102" t="s">
         <v>15</v>
       </c>
@@ -25207,7 +25207,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="102" t="s">
         <v>15</v>
       </c>
@@ -25263,7 +25263,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="102" t="s">
         <v>15</v>
       </c>
@@ -25319,7 +25319,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="130" t="s">
         <v>15</v>
       </c>
@@ -25375,7 +25375,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="130" t="s">
         <v>15</v>
       </c>
@@ -25487,7 +25487,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="130" t="s">
         <v>15</v>
       </c>
@@ -25543,7 +25543,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="130" t="s">
         <v>15</v>
       </c>
@@ -25599,7 +25599,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="130" t="s">
         <v>15</v>
       </c>
@@ -25655,7 +25655,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="130" t="s">
         <v>15</v>
       </c>
@@ -25711,7 +25711,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="130" t="s">
         <v>15</v>
       </c>
@@ -25767,7 +25767,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="130" t="s">
         <v>15</v>
       </c>
@@ -25823,7 +25823,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="130" t="s">
         <v>15</v>
       </c>
@@ -25879,7 +25879,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="132" t="s">
         <v>15</v>
       </c>
@@ -25935,7 +25935,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="106" t="s">
         <v>15</v>
       </c>
@@ -25991,7 +25991,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="106" t="s">
         <v>15</v>
       </c>
@@ -26047,7 +26047,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="106" t="s">
         <v>15</v>
       </c>
@@ -26103,7 +26103,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="132" t="s">
         <v>15</v>
       </c>
@@ -26159,7 +26159,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="106" t="s">
         <v>15</v>
       </c>
@@ -26215,7 +26215,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="106" t="s">
         <v>15</v>
       </c>
@@ -26327,7 +26327,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="132" t="s">
         <v>15</v>
       </c>
@@ -26383,7 +26383,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="106" t="s">
         <v>15</v>
       </c>
@@ -26439,7 +26439,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="132" t="s">
         <v>15</v>
       </c>
@@ -26495,7 +26495,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="20" t="s">
         <v>15</v>
       </c>
@@ -26551,7 +26551,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="20" t="s">
         <v>15</v>
       </c>
@@ -26607,7 +26607,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="20" t="s">
         <v>15</v>
       </c>
@@ -26663,7 +26663,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="20" t="s">
         <v>15</v>
       </c>
@@ -26775,7 +26775,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="20" t="s">
         <v>15</v>
       </c>
@@ -26831,7 +26831,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="20" t="s">
         <v>15</v>
       </c>
@@ -26887,7 +26887,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="20" t="s">
         <v>15</v>
       </c>
@@ -26943,7 +26943,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="20" t="s">
         <v>15</v>
       </c>
@@ -26999,7 +26999,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="20" t="s">
         <v>15</v>
       </c>
@@ -27055,7 +27055,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="20" t="s">
         <v>15</v>
       </c>
@@ -27111,7 +27111,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="117" t="s">
         <v>15</v>
       </c>
@@ -27167,7 +27167,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="117" t="s">
         <v>15</v>
       </c>
@@ -27279,7 +27279,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="117" t="s">
         <v>15</v>
       </c>
@@ -27335,7 +27335,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="117" t="s">
         <v>15</v>
       </c>
@@ -27391,7 +27391,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="117" t="s">
         <v>15</v>
       </c>
@@ -27447,7 +27447,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="117" t="s">
         <v>15</v>
       </c>
@@ -27503,7 +27503,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="117" t="s">
         <v>15</v>
       </c>
@@ -27559,7 +27559,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="117" t="s">
         <v>15</v>
       </c>
@@ -27615,7 +27615,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="117" t="s">
         <v>15</v>
       </c>
@@ -27671,7 +27671,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="117" t="s">
         <v>15</v>
       </c>
@@ -27727,7 +27727,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="106" t="s">
         <v>15</v>
       </c>
@@ -27783,7 +27783,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="106" t="s">
         <v>15</v>
       </c>
@@ -27839,7 +27839,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="106" t="s">
         <v>15</v>
       </c>
@@ -27895,7 +27895,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="106" t="s">
         <v>15</v>
       </c>
@@ -27951,7 +27951,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="106" t="s">
         <v>15</v>
       </c>
@@ -28007,7 +28007,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="106" t="s">
         <v>15</v>
       </c>
@@ -28063,7 +28063,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="106" t="s">
         <v>15</v>
       </c>
@@ -28119,7 +28119,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="106" t="s">
         <v>15</v>
       </c>
@@ -28175,7 +28175,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="106" t="s">
         <v>15</v>
       </c>
@@ -28287,7 +28287,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="106" t="s">
         <v>15</v>
       </c>
@@ -28343,7 +28343,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="20" t="s">
         <v>15</v>
       </c>
@@ -28399,7 +28399,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="20" t="s">
         <v>15</v>
       </c>
@@ -28455,7 +28455,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="20" t="s">
         <v>15</v>
       </c>
@@ -28511,7 +28511,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="20" t="s">
         <v>15</v>
       </c>
@@ -28623,7 +28623,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="20" t="s">
         <v>15</v>
       </c>
@@ -28679,7 +28679,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="20" t="s">
         <v>15</v>
       </c>
@@ -28735,7 +28735,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="20" t="s">
         <v>15</v>
       </c>
@@ -28791,7 +28791,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="20" t="s">
         <v>15</v>
       </c>
@@ -28847,7 +28847,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="20" t="s">
         <v>15</v>
       </c>
@@ -28903,7 +28903,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="20" t="s">
         <v>15</v>
       </c>
@@ -28959,7 +28959,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="171" t="s">
         <v>15</v>
       </c>
@@ -29015,7 +29015,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="171" t="s">
         <v>15</v>
       </c>
@@ -29071,7 +29071,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="171" t="s">
         <v>15</v>
       </c>
@@ -29127,7 +29127,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="171" t="s">
         <v>15</v>
       </c>
@@ -29239,7 +29239,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="171" t="s">
         <v>15</v>
       </c>
@@ -29295,7 +29295,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="171" t="s">
         <v>15</v>
       </c>
@@ -29351,7 +29351,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="171" t="s">
         <v>15</v>
       </c>
@@ -29407,7 +29407,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="171" t="s">
         <v>15</v>
       </c>
@@ -29463,7 +29463,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="171" t="s">
         <v>15</v>
       </c>
@@ -29519,7 +29519,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="171" t="s">
         <v>15</v>
       </c>
@@ -29575,7 +29575,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="98" t="s">
         <v>15</v>
       </c>
@@ -29631,7 +29631,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="98" t="s">
         <v>15</v>
       </c>
@@ -29687,7 +29687,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="98" t="s">
         <v>15</v>
       </c>
@@ -29743,7 +29743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="98" t="s">
         <v>15</v>
       </c>
@@ -29855,7 +29855,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="98" t="s">
         <v>15</v>
       </c>
@@ -29911,7 +29911,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="98" t="s">
         <v>15</v>
       </c>
@@ -29967,7 +29967,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="98" t="s">
         <v>15</v>
       </c>
@@ -30023,7 +30023,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="98" t="s">
         <v>15</v>
       </c>
@@ -30079,7 +30079,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="98" t="s">
         <v>15</v>
       </c>
@@ -30135,7 +30135,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="98" t="s">
         <v>15</v>
       </c>
@@ -30191,7 +30191,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="180" t="s">
         <v>15</v>
       </c>
@@ -30247,7 +30247,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="180" t="s">
         <v>15</v>
       </c>
@@ -30303,7 +30303,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="180" t="s">
         <v>15</v>
       </c>
@@ -30359,7 +30359,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="180" t="s">
         <v>15</v>
       </c>
@@ -30471,7 +30471,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="180" t="s">
         <v>15</v>
       </c>
@@ -30527,7 +30527,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="180" t="s">
         <v>15</v>
       </c>
@@ -30583,7 +30583,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="180" t="s">
         <v>15</v>
       </c>
@@ -30639,7 +30639,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="180" t="s">
         <v>15</v>
       </c>
@@ -30695,7 +30695,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="180" t="s">
         <v>15</v>
       </c>
@@ -30751,7 +30751,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="180" t="s">
         <v>15</v>
       </c>
@@ -30807,7 +30807,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="104" t="s">
         <v>15</v>
       </c>
@@ -30863,7 +30863,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="104" t="s">
         <v>15</v>
       </c>
@@ -30919,7 +30919,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="104" t="s">
         <v>15</v>
       </c>
@@ -30975,7 +30975,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="104" t="s">
         <v>15</v>
       </c>
@@ -31087,7 +31087,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="104" t="s">
         <v>15</v>
       </c>
@@ -31143,7 +31143,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="104" t="s">
         <v>15</v>
       </c>
@@ -31199,7 +31199,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="104" t="s">
         <v>15</v>
       </c>
@@ -31255,7 +31255,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="104" t="s">
         <v>15</v>
       </c>
@@ -31311,7 +31311,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="104" t="s">
         <v>15</v>
       </c>
@@ -31367,7 +31367,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="104" t="s">
         <v>15</v>
       </c>
@@ -31423,7 +31423,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="20" t="s">
         <v>15</v>
       </c>
@@ -31479,7 +31479,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="20" t="s">
         <v>15</v>
       </c>
@@ -31535,7 +31535,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="20" t="s">
         <v>15</v>
       </c>
@@ -31591,7 +31591,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="20" t="s">
         <v>15</v>
       </c>
@@ -31703,7 +31703,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="20" t="s">
         <v>15</v>
       </c>
@@ -31759,7 +31759,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="20" t="s">
         <v>15</v>
       </c>
@@ -31815,7 +31815,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="20" t="s">
         <v>15</v>
       </c>
@@ -31871,7 +31871,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="20" t="s">
         <v>15</v>
       </c>
@@ -31927,7 +31927,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="20" t="s">
         <v>15</v>
       </c>
@@ -31983,7 +31983,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="20" t="s">
         <v>15</v>
       </c>
@@ -32039,7 +32039,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="106" t="s">
         <v>15</v>
       </c>
@@ -32095,7 +32095,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="106" t="s">
         <v>15</v>
       </c>
@@ -32151,7 +32151,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="106" t="s">
         <v>15</v>
       </c>
@@ -32207,7 +32207,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="106" t="s">
         <v>15</v>
       </c>
@@ -32319,7 +32319,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="106" t="s">
         <v>15</v>
       </c>
@@ -32375,7 +32375,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="106" t="s">
         <v>15</v>
       </c>
@@ -32431,7 +32431,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="106" t="s">
         <v>15</v>
       </c>
@@ -32487,7 +32487,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="106" t="s">
         <v>15</v>
       </c>
@@ -32543,7 +32543,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="106" t="s">
         <v>15</v>
       </c>
@@ -32599,7 +32599,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="106" t="s">
         <v>15</v>
       </c>
@@ -32655,7 +32655,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="117" t="s">
         <v>15</v>
       </c>
@@ -32711,7 +32711,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="117" t="s">
         <v>15</v>
       </c>
@@ -32767,7 +32767,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="117" t="s">
         <v>15</v>
       </c>
@@ -32823,7 +32823,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="117" t="s">
         <v>15</v>
       </c>
@@ -32935,7 +32935,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="117" t="s">
         <v>15</v>
       </c>
@@ -32991,7 +32991,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="117" t="s">
         <v>15</v>
       </c>
@@ -33047,7 +33047,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="117" t="s">
         <v>15</v>
       </c>
@@ -33103,7 +33103,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="117" t="s">
         <v>15</v>
       </c>
@@ -33159,7 +33159,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="117" t="s">
         <v>15</v>
       </c>
@@ -33215,7 +33215,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="117" t="s">
         <v>15</v>
       </c>
@@ -33271,7 +33271,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="187" t="s">
         <v>15</v>
       </c>
@@ -33327,7 +33327,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="187" t="s">
         <v>15</v>
       </c>
@@ -33383,7 +33383,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="187" t="s">
         <v>15</v>
       </c>
@@ -33439,7 +33439,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="187" t="s">
         <v>15</v>
       </c>
@@ -33551,7 +33551,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="187" t="s">
         <v>15</v>
       </c>
@@ -33607,7 +33607,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="187" t="s">
         <v>15</v>
       </c>
@@ -33663,7 +33663,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="187" t="s">
         <v>15</v>
       </c>
@@ -33719,7 +33719,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="187" t="s">
         <v>15</v>
       </c>
@@ -33775,7 +33775,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="187" t="s">
         <v>15</v>
       </c>
@@ -33831,7 +33831,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="187" t="s">
         <v>15</v>
       </c>
@@ -33887,7 +33887,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="106" t="s">
         <v>15</v>
       </c>
@@ -33943,7 +33943,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="106" t="s">
         <v>15</v>
       </c>
@@ -33999,7 +33999,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="106" t="s">
         <v>15</v>
       </c>
@@ -34055,7 +34055,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="106" t="s">
         <v>15</v>
       </c>
@@ -34167,7 +34167,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="106" t="s">
         <v>15</v>
       </c>
@@ -34223,7 +34223,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="106" t="s">
         <v>15</v>
       </c>
@@ -34279,7 +34279,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="106" t="s">
         <v>15</v>
       </c>
@@ -34335,7 +34335,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="106" t="s">
         <v>15</v>
       </c>
@@ -34391,7 +34391,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="106" t="s">
         <v>15</v>
       </c>
@@ -34447,7 +34447,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="106" t="s">
         <v>15</v>
       </c>
@@ -34503,7 +34503,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="117" t="s">
         <v>15</v>
       </c>
@@ -34559,7 +34559,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="117" t="s">
         <v>15</v>
       </c>
@@ -34615,7 +34615,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="117" t="s">
         <v>15</v>
       </c>
@@ -34671,7 +34671,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="117" t="s">
         <v>15</v>
       </c>
@@ -34783,7 +34783,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="117" t="s">
         <v>15</v>
       </c>
@@ -34839,7 +34839,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="117" t="s">
         <v>15</v>
       </c>
@@ -34895,7 +34895,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="117" t="s">
         <v>15</v>
       </c>
@@ -34951,7 +34951,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="117" t="s">
         <v>15</v>
       </c>
@@ -35007,7 +35007,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="117" t="s">
         <v>15</v>
       </c>
@@ -35063,7 +35063,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="117" t="s">
         <v>15</v>
       </c>
@@ -35119,7 +35119,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="130" t="s">
         <v>15</v>
       </c>
@@ -35175,7 +35175,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="130" t="s">
         <v>15</v>
       </c>
@@ -35231,7 +35231,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="130" t="s">
         <v>15</v>
       </c>
@@ -35287,7 +35287,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="130" t="s">
         <v>15</v>
       </c>
@@ -35399,7 +35399,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="130" t="s">
         <v>15</v>
       </c>
@@ -35455,7 +35455,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="130" t="s">
         <v>15</v>
       </c>
@@ -35511,7 +35511,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="130" t="s">
         <v>15</v>
       </c>
@@ -35567,7 +35567,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="130" t="s">
         <v>15</v>
       </c>
@@ -35623,7 +35623,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="130" t="s">
         <v>15</v>
       </c>
@@ -35679,7 +35679,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="130" t="s">
         <v>15</v>
       </c>
@@ -35735,7 +35735,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="82" t="s">
         <v>15</v>
       </c>
@@ -35763,7 +35763,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="82" t="s">
         <v>15</v>
       </c>
@@ -35791,7 +35791,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="82" t="s">
         <v>15</v>
       </c>
@@ -35819,7 +35819,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="82" t="s">
         <v>15</v>
       </c>
@@ -35875,7 +35875,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="82" t="s">
         <v>15</v>
       </c>
@@ -35903,7 +35903,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="82" t="s">
         <v>15</v>
       </c>
@@ -35931,7 +35931,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="82" t="s">
         <v>15</v>
       </c>
@@ -35959,7 +35959,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="82" t="s">
         <v>15</v>
       </c>
@@ -35987,7 +35987,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="82" t="s">
         <v>15</v>
       </c>
@@ -36015,7 +36015,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="82" t="s">
         <v>15</v>
       </c>
@@ -36043,7 +36043,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="106" t="s">
         <v>15</v>
       </c>
@@ -36069,7 +36069,7 @@
       <c r="Q310" s="106"/>
       <c r="R310" s="106"/>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="106" t="s">
         <v>15</v>
       </c>
@@ -36095,7 +36095,7 @@
       <c r="Q311" s="106"/>
       <c r="R311" s="106"/>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="106" t="s">
         <v>15</v>
       </c>
@@ -36121,7 +36121,7 @@
       <c r="Q312" s="106"/>
       <c r="R312" s="106"/>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="106" t="s">
         <v>15</v>
       </c>
@@ -36173,7 +36173,7 @@
       <c r="Q314" s="106"/>
       <c r="R314" s="106"/>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="106" t="s">
         <v>15</v>
       </c>
@@ -36199,7 +36199,7 @@
       <c r="Q315" s="106"/>
       <c r="R315" s="106"/>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="106" t="s">
         <v>15</v>
       </c>
@@ -36225,7 +36225,7 @@
       <c r="Q316" s="106"/>
       <c r="R316" s="106"/>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="106" t="s">
         <v>15</v>
       </c>
@@ -36251,7 +36251,7 @@
       <c r="Q317" s="106"/>
       <c r="R317" s="106"/>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="106" t="s">
         <v>15</v>
       </c>
@@ -36277,7 +36277,7 @@
       <c r="Q318" s="106"/>
       <c r="R318" s="106"/>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="106" t="s">
         <v>15</v>
       </c>
@@ -36303,7 +36303,7 @@
       <c r="Q319" s="106"/>
       <c r="R319" s="106"/>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="94" t="s">
         <v>15</v>
       </c>
@@ -36329,7 +36329,7 @@
       <c r="Q320" s="94"/>
       <c r="R320" s="94"/>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="94" t="s">
         <v>15</v>
       </c>
@@ -36355,7 +36355,7 @@
       <c r="Q321" s="94"/>
       <c r="R321" s="94"/>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="94" t="s">
         <v>15</v>
       </c>
@@ -36381,7 +36381,7 @@
       <c r="Q322" s="94"/>
       <c r="R322" s="94"/>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="94" t="s">
         <v>15</v>
       </c>
@@ -36407,7 +36407,7 @@
       <c r="Q323" s="94"/>
       <c r="R323" s="94"/>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="94" t="s">
         <v>15</v>
       </c>
@@ -36459,7 +36459,7 @@
       <c r="Q325" s="94"/>
       <c r="R325" s="94"/>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="94" t="s">
         <v>15</v>
       </c>
@@ -36485,7 +36485,7 @@
       <c r="Q326" s="94"/>
       <c r="R326" s="94"/>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="94" t="s">
         <v>15</v>
       </c>
@@ -36511,7 +36511,7 @@
       <c r="Q327" s="94"/>
       <c r="R327" s="94"/>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="94" t="s">
         <v>15</v>
       </c>
@@ -36537,7 +36537,7 @@
       <c r="Q328" s="94"/>
       <c r="R328" s="94"/>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="94" t="s">
         <v>15</v>
       </c>
@@ -36563,7 +36563,7 @@
       <c r="Q329" s="94"/>
       <c r="R329" s="94"/>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="94" t="s">
         <v>15</v>
       </c>
@@ -36589,7 +36589,7 @@
       <c r="Q330" s="94"/>
       <c r="R330" s="94"/>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="94" t="s">
         <v>15</v>
       </c>
@@ -36617,6 +36617,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:R331" xr:uid="{60B61E17-3974-4A13-9E63-E3E361189E57}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Fatih"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R89">
       <sortCondition ref="B1:B70"/>
     </sortState>
@@ -36637,13 +36642,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F50F41-FA95-43BB-B219-7C3CF5F5C24E}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:W188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="W134" sqref="W134:W144"/>
     </sheetView>
   </sheetViews>
@@ -36736,7 +36741,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="123" t="s">
         <v>39</v>
       </c>
@@ -36810,7 +36815,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="106" t="s">
         <v>39</v>
       </c>
@@ -36884,7 +36889,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="106" t="s">
         <v>39</v>
       </c>
@@ -36955,7 +36960,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="106" t="s">
         <v>39</v>
       </c>
@@ -37026,7 +37031,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="106" t="s">
         <v>39</v>
       </c>
@@ -37168,7 +37173,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="106" t="s">
         <v>39</v>
       </c>
@@ -37239,7 +37244,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="106" t="s">
         <v>39</v>
       </c>
@@ -37310,7 +37315,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="106" t="s">
         <v>39</v>
       </c>
@@ -37381,7 +37386,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="106" t="s">
         <v>39</v>
       </c>
@@ -37452,7 +37457,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="106" t="s">
         <v>39</v>
       </c>
@@ -37523,7 +37528,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>39</v>
       </c>
@@ -37671,7 +37676,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>39</v>
       </c>
@@ -37745,7 +37750,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>39</v>
       </c>
@@ -37819,7 +37824,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>39</v>
       </c>
@@ -37893,7 +37898,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
         <v>39</v>
       </c>
@@ -37967,7 +37972,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
         <v>39</v>
       </c>
@@ -38041,7 +38046,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
         <v>39</v>
       </c>
@@ -38115,7 +38120,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
         <v>39</v>
       </c>
@@ -38189,7 +38194,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
         <v>39</v>
       </c>
@@ -38263,7 +38268,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
         <v>39</v>
       </c>
@@ -38337,7 +38342,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>39</v>
       </c>
@@ -38411,7 +38416,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>39</v>
       </c>
@@ -38559,7 +38564,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>39</v>
       </c>
@@ -38633,7 +38638,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>39</v>
       </c>
@@ -38707,7 +38712,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>39</v>
       </c>
@@ -38781,7 +38786,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>39</v>
       </c>
@@ -38855,7 +38860,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>39</v>
       </c>
@@ -38929,7 +38934,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>39</v>
       </c>
@@ -39003,7 +39008,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>39</v>
       </c>
@@ -39077,7 +39082,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
         <v>39</v>
       </c>
@@ -39151,7 +39156,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="177" t="s">
         <v>39</v>
       </c>
@@ -39225,7 +39230,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="177" t="s">
         <v>39</v>
       </c>
@@ -39299,7 +39304,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="177" t="s">
         <v>39</v>
       </c>
@@ -39373,7 +39378,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="177" t="s">
         <v>39</v>
       </c>
@@ -39521,7 +39526,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="177" t="s">
         <v>39</v>
       </c>
@@ -39595,7 +39600,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="177" t="s">
         <v>39</v>
       </c>
@@ -39669,7 +39674,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="177" t="s">
         <v>39</v>
       </c>
@@ -39743,7 +39748,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="177" t="s">
         <v>39</v>
       </c>
@@ -39817,7 +39822,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="177" t="s">
         <v>39</v>
       </c>
@@ -39891,7 +39896,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="177" t="s">
         <v>39</v>
       </c>
@@ -39965,7 +39970,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="180" t="s">
         <v>39</v>
       </c>
@@ -40039,7 +40044,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="180" t="s">
         <v>39</v>
       </c>
@@ -40113,7 +40118,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="180" t="s">
         <v>39</v>
       </c>
@@ -40187,7 +40192,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="180" t="s">
         <v>39</v>
       </c>
@@ -40335,7 +40340,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="180" t="s">
         <v>39</v>
       </c>
@@ -40409,7 +40414,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="180" t="s">
         <v>39</v>
       </c>
@@ -40483,7 +40488,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="180" t="s">
         <v>39</v>
       </c>
@@ -40557,7 +40562,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="180" t="s">
         <v>39</v>
       </c>
@@ -40631,7 +40636,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="180" t="s">
         <v>39</v>
       </c>
@@ -40705,7 +40710,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="180" t="s">
         <v>39</v>
       </c>
@@ -40779,7 +40784,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="20" t="s">
         <v>39</v>
       </c>
@@ -40853,7 +40858,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="20" t="s">
         <v>39</v>
       </c>
@@ -40927,7 +40932,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="20" t="s">
         <v>39</v>
       </c>
@@ -41001,7 +41006,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="20" t="s">
         <v>39</v>
       </c>
@@ -41149,7 +41154,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="20" t="s">
         <v>39</v>
       </c>
@@ -41223,7 +41228,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="20" t="s">
         <v>39</v>
       </c>
@@ -41297,7 +41302,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="20" t="s">
         <v>39</v>
       </c>
@@ -41371,7 +41376,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="20" t="s">
         <v>39</v>
       </c>
@@ -41445,7 +41450,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="20" t="s">
         <v>39</v>
       </c>
@@ -41519,7 +41524,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="20" t="s">
         <v>39</v>
       </c>
@@ -41593,7 +41598,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="117" t="s">
         <v>39</v>
       </c>
@@ -41667,7 +41672,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="117" t="s">
         <v>39</v>
       </c>
@@ -41741,7 +41746,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="117" t="s">
         <v>39</v>
       </c>
@@ -41815,7 +41820,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="117" t="s">
         <v>39</v>
       </c>
@@ -41963,7 +41968,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="117" t="s">
         <v>39</v>
       </c>
@@ -42037,7 +42042,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="117" t="s">
         <v>39</v>
       </c>
@@ -42111,7 +42116,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="117" t="s">
         <v>39</v>
       </c>
@@ -42185,7 +42190,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="117" t="s">
         <v>39</v>
       </c>
@@ -42259,7 +42264,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="117" t="s">
         <v>39</v>
       </c>
@@ -42333,7 +42338,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="117" t="s">
         <v>39</v>
       </c>
@@ -42407,7 +42412,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="106" t="s">
         <v>39</v>
       </c>
@@ -42481,7 +42486,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="106" t="s">
         <v>39</v>
       </c>
@@ -42555,7 +42560,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="106" t="s">
         <v>39</v>
       </c>
@@ -42629,7 +42634,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="106" t="s">
         <v>39</v>
       </c>
@@ -42777,7 +42782,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="106" t="s">
         <v>39</v>
       </c>
@@ -42851,7 +42856,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="106" t="s">
         <v>39</v>
       </c>
@@ -42925,7 +42930,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="106" t="s">
         <v>39</v>
       </c>
@@ -42999,7 +43004,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="106" t="s">
         <v>39</v>
       </c>
@@ -43073,7 +43078,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="106" t="s">
         <v>39</v>
       </c>
@@ -43147,7 +43152,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="106" t="s">
         <v>39</v>
       </c>
@@ -43221,7 +43226,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="23" t="s">
         <v>39</v>
       </c>
@@ -43295,7 +43300,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="23" t="s">
         <v>39</v>
       </c>
@@ -43369,7 +43374,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="23" t="s">
         <v>39</v>
       </c>
@@ -43443,7 +43448,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="23" t="s">
         <v>39</v>
       </c>
@@ -43591,7 +43596,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="23" t="s">
         <v>39</v>
       </c>
@@ -43665,7 +43670,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="23" t="s">
         <v>39</v>
       </c>
@@ -43739,7 +43744,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="23" t="s">
         <v>39</v>
       </c>
@@ -43813,7 +43818,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="23" t="s">
         <v>39</v>
       </c>
@@ -43887,7 +43892,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="23" t="s">
         <v>39</v>
       </c>
@@ -43961,7 +43966,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="23" t="s">
         <v>39</v>
       </c>
@@ -44035,7 +44040,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="33" t="s">
         <v>39</v>
       </c>
@@ -44109,7 +44114,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="33" t="s">
         <v>39</v>
       </c>
@@ -44183,7 +44188,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="33" t="s">
         <v>39</v>
       </c>
@@ -44257,7 +44262,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="33" t="s">
         <v>39</v>
       </c>
@@ -44405,7 +44410,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="33" t="s">
         <v>39</v>
       </c>
@@ -44479,7 +44484,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="33" t="s">
         <v>39</v>
       </c>
@@ -44553,7 +44558,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="33" t="s">
         <v>39</v>
       </c>
@@ -44627,7 +44632,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="33" t="s">
         <v>39</v>
       </c>
@@ -44701,7 +44706,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="33" t="s">
         <v>39</v>
       </c>
@@ -44775,7 +44780,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="33" t="s">
         <v>39</v>
       </c>
@@ -44849,7 +44854,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="59" t="s">
         <v>39</v>
       </c>
@@ -44923,7 +44928,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="59" t="s">
         <v>39</v>
       </c>
@@ -44997,7 +45002,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="59" t="s">
         <v>39</v>
       </c>
@@ -45071,7 +45076,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="59" t="s">
         <v>39</v>
       </c>
@@ -45219,7 +45224,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="59" t="s">
         <v>39</v>
       </c>
@@ -45293,7 +45298,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="59" t="s">
         <v>39</v>
       </c>
@@ -45367,7 +45372,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="59" t="s">
         <v>39</v>
       </c>
@@ -45441,7 +45446,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="59" t="s">
         <v>39</v>
       </c>
@@ -45515,7 +45520,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="59" t="s">
         <v>39</v>
       </c>
@@ -45589,7 +45594,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="59" t="s">
         <v>39</v>
       </c>
@@ -45663,7 +45668,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="23" t="s">
         <v>39</v>
       </c>
@@ -45705,7 +45710,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="23" t="s">
         <v>39</v>
       </c>
@@ -45747,7 +45752,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="23" t="s">
         <v>39</v>
       </c>
@@ -45789,7 +45794,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="23" t="s">
         <v>39</v>
       </c>
@@ -45873,7 +45878,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="23" t="s">
         <v>39</v>
       </c>
@@ -45915,7 +45920,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="23" t="s">
         <v>39</v>
       </c>
@@ -45957,7 +45962,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="23" t="s">
         <v>39</v>
       </c>
@@ -45999,7 +46004,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="23" t="s">
         <v>39</v>
       </c>
@@ -46041,7 +46046,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="23" t="s">
         <v>39</v>
       </c>
@@ -46083,7 +46088,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="23" t="s">
         <v>39</v>
       </c>
@@ -46125,7 +46130,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="59" t="s">
         <v>39</v>
       </c>
@@ -46167,7 +46172,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="59" t="s">
         <v>39</v>
       </c>
@@ -46209,7 +46214,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="59" t="s">
         <v>39</v>
       </c>
@@ -46251,7 +46256,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="59" t="s">
         <v>39</v>
       </c>
@@ -46335,7 +46340,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="59" t="s">
         <v>39</v>
       </c>
@@ -46377,7 +46382,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="59" t="s">
         <v>39</v>
       </c>
@@ -46419,7 +46424,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="59" t="s">
         <v>39</v>
       </c>
@@ -46461,7 +46466,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="59" t="s">
         <v>39</v>
       </c>
@@ -46503,7 +46508,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="59" t="s">
         <v>39</v>
       </c>
@@ -46545,7 +46550,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="59" t="s">
         <v>39</v>
       </c>
@@ -46587,7 +46592,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="136" t="s">
         <v>39</v>
       </c>
@@ -46627,7 +46632,7 @@
       </c>
       <c r="W145" s="136"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="136" t="s">
         <v>39</v>
       </c>
@@ -46667,7 +46672,7 @@
       </c>
       <c r="W146" s="136"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="136" t="s">
         <v>39</v>
       </c>
@@ -46707,7 +46712,7 @@
       </c>
       <c r="W147" s="136"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="136" t="s">
         <v>39</v>
       </c>
@@ -46787,7 +46792,7 @@
       </c>
       <c r="W149" s="136"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="136" t="s">
         <v>39</v>
       </c>
@@ -46827,7 +46832,7 @@
       </c>
       <c r="W150" s="136"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="136" t="s">
         <v>39</v>
       </c>
@@ -46867,7 +46872,7 @@
       </c>
       <c r="W151" s="136"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="136" t="s">
         <v>39</v>
       </c>
@@ -46907,7 +46912,7 @@
       </c>
       <c r="W152" s="136"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="136" t="s">
         <v>39</v>
       </c>
@@ -46947,7 +46952,7 @@
       </c>
       <c r="W153" s="136"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="136" t="s">
         <v>39</v>
       </c>
@@ -46987,7 +46992,7 @@
       </c>
       <c r="W154" s="136"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="136" t="s">
         <v>39</v>
       </c>
@@ -47027,7 +47032,7 @@
       </c>
       <c r="W155" s="136"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="198" t="s">
         <v>39</v>
       </c>
@@ -47067,7 +47072,7 @@
       </c>
       <c r="W156" s="198"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="198" t="s">
         <v>39</v>
       </c>
@@ -47107,7 +47112,7 @@
       </c>
       <c r="W157" s="198"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="198" t="s">
         <v>39</v>
       </c>
@@ -47147,7 +47152,7 @@
       </c>
       <c r="W158" s="198"/>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="198" t="s">
         <v>39</v>
       </c>
@@ -47227,7 +47232,7 @@
       </c>
       <c r="W160" s="198"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="198" t="s">
         <v>39</v>
       </c>
@@ -47267,7 +47272,7 @@
       </c>
       <c r="W161" s="198"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="198" t="s">
         <v>39</v>
       </c>
@@ -47307,7 +47312,7 @@
       </c>
       <c r="W162" s="198"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="198" t="s">
         <v>39</v>
       </c>
@@ -47347,7 +47352,7 @@
       </c>
       <c r="W163" s="198"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="198" t="s">
         <v>39</v>
       </c>
@@ -47387,7 +47392,7 @@
       </c>
       <c r="W164" s="198"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="198" t="s">
         <v>39</v>
       </c>
@@ -47427,7 +47432,7 @@
       </c>
       <c r="W165" s="198"/>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="198" t="s">
         <v>39</v>
       </c>
@@ -47467,7 +47472,7 @@
       </c>
       <c r="W166" s="198"/>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="96" t="s">
         <v>39</v>
       </c>
@@ -47507,7 +47512,7 @@
       </c>
       <c r="W167" s="96"/>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="96" t="s">
         <v>39</v>
       </c>
@@ -47547,7 +47552,7 @@
       </c>
       <c r="W168" s="96"/>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="96" t="s">
         <v>39</v>
       </c>
@@ -47587,7 +47592,7 @@
       </c>
       <c r="W169" s="96"/>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="96" t="s">
         <v>39</v>
       </c>
@@ -47667,7 +47672,7 @@
       </c>
       <c r="W171" s="96"/>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="96" t="s">
         <v>39</v>
       </c>
@@ -47707,7 +47712,7 @@
       </c>
       <c r="W172" s="96"/>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="96" t="s">
         <v>39</v>
       </c>
@@ -47747,7 +47752,7 @@
       </c>
       <c r="W173" s="96"/>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="96" t="s">
         <v>39</v>
       </c>
@@ -47787,7 +47792,7 @@
       </c>
       <c r="W174" s="96"/>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="96" t="s">
         <v>39</v>
       </c>
@@ -47827,7 +47832,7 @@
       </c>
       <c r="W175" s="96"/>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="96" t="s">
         <v>39</v>
       </c>
@@ -47867,7 +47872,7 @@
       </c>
       <c r="W176" s="96"/>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="96" t="s">
         <v>39</v>
       </c>
@@ -47907,7 +47912,7 @@
       </c>
       <c r="W177" s="96"/>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="151" t="s">
         <v>39</v>
       </c>
@@ -47947,7 +47952,7 @@
       </c>
       <c r="W178" s="151"/>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="151" t="s">
         <v>39</v>
       </c>
@@ -47987,7 +47992,7 @@
       </c>
       <c r="W179" s="151"/>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="151" t="s">
         <v>39</v>
       </c>
@@ -48027,7 +48032,7 @@
       </c>
       <c r="W180" s="151"/>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="151" t="s">
         <v>39</v>
       </c>
@@ -48107,7 +48112,7 @@
       </c>
       <c r="W182" s="151"/>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="151" t="s">
         <v>39</v>
       </c>
@@ -48147,7 +48152,7 @@
       </c>
       <c r="W183" s="151"/>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="151" t="s">
         <v>39</v>
       </c>
@@ -48187,7 +48192,7 @@
       </c>
       <c r="W184" s="151"/>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="151" t="s">
         <v>39</v>
       </c>
@@ -48227,7 +48232,7 @@
       </c>
       <c r="W185" s="151"/>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="151" t="s">
         <v>39</v>
       </c>
@@ -48267,7 +48272,7 @@
       </c>
       <c r="W186" s="151"/>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="151" t="s">
         <v>39</v>
       </c>
@@ -48307,7 +48312,7 @@
       </c>
       <c r="W187" s="151"/>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="151" t="s">
         <v>39</v>
       </c>
@@ -48348,7 +48353,13 @@
       <c r="W188" s="151"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W144" xr:uid="{B0F50F41-FA95-43BB-B219-7C3CF5F5C24E}"/>
+  <autoFilter ref="A1:W188" xr:uid="{B0F50F41-FA95-43BB-B219-7C3CF5F5C24E}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Fatih"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
